--- a/biology/Biochimie/Nucléotidyltransférase/Nucléotidyltransférase.xlsx
+++ b/biology/Biochimie/Nucléotidyltransférase/Nucléotidyltransférase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nucl%C3%A9otidyltransf%C3%A9rase</t>
+          <t>Nucléotidyltransférase</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les nucléotidyltransférases sont des enzymes transférases de groupes contenant du phosphore, par exemple des substituants d'acides nucléotidyliques ou simplement des monophosphates de nucléoside. La réaction générale de transfert d'un fragment nucléoside monophosphate de A à B peut s'écrire :
 A- PN + B 
@@ -503,7 +515,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nucl%C3%A9otidyltransf%C3%A9rase</t>
+          <t>Nucléotidyltransférase</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -521,9 +533,11 @@
           <t>Rôle dans le métabolisme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">De nombreuses enzymes métaboliques sont modifiées par des nucléotidyltransférases. La fixation d'une AMP (adénylylation) ou d'une UMP (uridylylation) peut activer ou inactiver une enzyme ou modifier sa spécificité (voir figure). Ces modifications peuvent conduire à des réseaux de régulation complexes qui peuvent ajuster finement les activités enzymatiques afin que seuls les composés nécessaires soient fabriqués (ici : la glutamine)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De nombreuses enzymes métaboliques sont modifiées par des nucléotidyltransférases. La fixation d'une AMP (adénylylation) ou d'une UMP (uridylylation) peut activer ou inactiver une enzyme ou modifier sa spécificité (voir figure). Ces modifications peuvent conduire à des réseaux de régulation complexes qui peuvent ajuster finement les activités enzymatiques afin que seuls les composés nécessaires soient fabriqués (ici : la glutamine).
 </t>
         </is>
       </c>
@@ -534,7 +548,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nucl%C3%A9otidyltransf%C3%A9rase</t>
+          <t>Nucléotidyltransférase</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,9 +566,11 @@
           <t>Rôle dans les mécanismes de réparation de l'ADN</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La nucléotidyl transférase est un composant de la voie de réparation pour la réparation par excision d'une seule base nucléotidique. Ce mécanisme de réparation commence lorsqu'un seul nucléotide est reconnu par l'ADN glycosylase comme étant mal apparié ou a été muté d'une manière ou d'une autre (lumière UV, mutagène chimique, etc.) et est supprimé. Plus tard, une nucléotidyl transférase est utilisée pour combler le vide avec la base correcte, en utilisant le brin matrice comme référence[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La nucléotidyl transférase est un composant de la voie de réparation pour la réparation par excision d'une seule base nucléotidique. Ce mécanisme de réparation commence lorsqu'un seul nucléotide est reconnu par l'ADN glycosylase comme étant mal apparié ou a été muté d'une manière ou d'une autre (lumière UV, mutagène chimique, etc.) et est supprimé. Plus tard, une nucléotidyl transférase est utilisée pour combler le vide avec la base correcte, en utilisant le brin matrice comme référence.
 </t>
         </is>
       </c>
